--- a/biology/Botanique/Nerine/Nerine.xlsx
+++ b/biology/Botanique/Nerine/Nerine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nerine est un genre de plantes herbacées vivaces. Il appartient à la famille des Liliaceae selon la classification classique. La classification phylogénétique le place dans la famille des Amaryllidaceae.
 Ce sont des plantes monocotylédones appartenant à l'ordre des Asparagales, comprenant près d'une cinquantaine de variétés. L'une d'elles, la Nerine bowdenii à fleurs roses parfumées, que l'on rencontre en Afrique du Sud et dans les îles Anglo-Normandes (notamment à Guernesey où elle est devenue la fleur emblématique de l'île sous le nom de Lis de Guernesey).
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ?[réf. nécessaire] :
 Nerine alta
@@ -563,7 +577,7 @@
 Nerine undulata
 Nerine veitchii
 Nerine versicolor
-Selon World Checklist of Selected Plant Families (WCSP)  (15 mars 2012)[1] :
+Selon World Checklist of Selected Plant Families (WCSP)  (15 mars 2012) :
 Nerine angustifolia (Baker) W.Watson (1889)
 Nerine appendiculata Baker (1894)
 Nerine bowdenii W.Watson (1904)
@@ -590,19 +604,19 @@
 Nerine transvaalensis L.Bolus (1938)
 Nerine undulata (L.) Herb. (1820)
 Nerine ×versicolor Herb. (1821)
-Selon NCBI  (15 mars 2012)[2] :
+Selon NCBI  (15 mars 2012) :
 Nerine alta
 Nerine bowdenii
 Nerine laticoma
 Nerine sarniensis
-Selon World Register of Marine Species                               (15 mars 2012)[3] :
+Selon World Register of Marine Species                               (15 mars 2012) :
 Nerine beata Williams, 1859
 Nerine faughani Gallardo, 1968
 Nerine macrochaeta Schmarda, 1861
 Nerine marcella Williams, 1851
-Selon ITIS      (15 mars 2012)[4] :
+Selon ITIS      (15 mars 2012) :
 Nerine bowdenii W. Watson
-Selon Catalogue of Life                                  (15 mars 2012)[5] :
+Selon Catalogue of Life                                  (15 mars 2012) :
 Nerine beata
 Nerine faughani
 Nerine macrochaeta
